--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/admin/DebtFail.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/admin/DebtFail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="7125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12780" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户通过手机号登录成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>it789123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,6 +72,10 @@
   </si>
   <si>
     <t>targetFpid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>债转失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -471,19 +471,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/admin/DebtFail.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/admin/DebtFail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12780" windowHeight="7725"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12270" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,10 @@
   </si>
   <si>
     <t>债转失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,7 +433,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -477,7 +481,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/admin/DebtFail.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/admin/DebtFail.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12270" windowHeight="7725"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11340" windowHeight="7725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1:I23"/>
+  <oleSize ref="A1:J25"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -432,7 +432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -501,7 +501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/admin/DebtFail.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/admin/DebtFail.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11340" windowHeight="7725" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12465" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1:J25"/>
+  <oleSize ref="A1:H22"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>search_username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>random</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,7 +75,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>random</t>
+    <t>search_fpId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${DebtUtils.getFpId()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,7 +432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -458,10 +458,10 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -484,10 +484,10 @@
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -501,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/admin/DebtFail.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/admin/DebtFail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12465" windowHeight="7125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12750" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -63,10 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>random</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>targetFpid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,6 +76,10 @@
   </si>
   <si>
     <t>${DebtUtils.getFpId()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${DebtUtils.getFailTargetFpid()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,10 +458,10 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
@@ -481,13 +481,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/admin/DebtFail.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/admin/DebtFail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12750" windowHeight="7125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14070" windowHeight="2475"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
